--- a/Translations/en-fr-FoodNinja-ContentThemeList.xlsx
+++ b/Translations/en-fr-FoodNinja-ContentThemeList.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of fruits and vegetables. Complexity of task escalates with advancing level: at the beginning the focus is on the fruits and the vegetables alone, then playing with their colours is introduced.</t>
+          <t>Search for the fruits and vegetables! Slice them to earn points and learn about their nutritional value and colourful palette, how many you should consume daily, and clever ways to add them in your diet.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Familiarisation avec le groupe alimentaire des fruits et légumes. La complexité de la tâche dégénère avec un niveau avancé: au début, l'accent est mis sur les fruits et les légumes seuls, puis jouer avec leurs couleurs est introduit.</t>
+          <t>Recherchez les fruits et légumes! Tranchez-les pour gagner des points et découvrez leur valeur nutritionnelle et leur palette de couleurs, combien vous devriez en consommer quotidiennement et les façons astucieuses de les ajouter à votre alimentation.</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Your task is to slice only the fruits you see.</t>
+          <t>Your task is to slice the fruits!</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Votre tâche consiste à trancher uniquement les fruits que vous voyez.</t>
+          <t>Votre tâche est de trancher les fruits !</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fruits are among the foods it is recommended you consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
+          <t>Fruits are among the foods you should consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Les fruits sont parmi les aliments qu'il est recommandé de consommer quotidiennement. En général, 2-3 fruits par jour sont votre objectif ultime. La sélection d'un fruit comme collation, à l'école ou l'après-midi, vous aidera à atteindre votre objectif quotidien. Pour ce faire, donnez aux fruits une priorité: mangez d'abord le fruit, puis n'importe quoi d'autre!</t>
+          <t>Les fruits font partie des aliments que vous devriez consommer quotidiennement. En général, votre objectif ultime est de consommer 2 à 3 fruits par jour. Choisir un fruit comme collation, à l'école ou l'après-midi, vous aidera à atteindre votre objectif quotidien. Pour cela, donnez la priorité aux fruits : mangez d’abord le fruit, puis n’importe quoi d’autre !</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Your task is to slice only the veggies you see.</t>
+          <t>Your task is to slice the vegetables !</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Votre tâche consiste à trancher uniquement les légumes que vous voyez.</t>
+          <t>Votre tâche est de trancher les légumes !</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vegetables, like fruits, are also recommended to be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with veggies!</t>
+          <t>Vegetables, like fruits, should be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with vegetables!</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Les légumes, comme les fruits, sont également recommandés quotidiennement. Ils peuvent être servis comme salade ou même comme plat principal. Pour atteindre votre objectif quotidien, accompagnez vos principaux repas de légumes!</t>
+          <t>Les légumes, comme les fruits, doivent être consommés quotidiennement. Ils peuvent être servis en salade ou même en plat principal. Pour atteindre votre objectif quotidien, accompagnez vos repas principaux de légumes !</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Your task is to slice only the F&amp;V with red colour.</t>
+          <t>Your task is to slice the fruits anf vegetables with red colour!</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Votre tâche consiste à trancher uniquement le F&amp;V avec une couleur rouge.</t>
+          <t>Votre tâche est de trancher les fruits et légumes de couleur rouge !</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of dairy products. The complexity of the task increases with each level: first, the focus is on identifying and slicing common dairy products; then, learners move on to slicing the image that shows the recommended daily consumption of dairy products; finally, they identify and slice the image that highlights the key nutrient found in dairies, i.e. calcium.</t>
+          <t>Search for the dairy products! Slice them to earn points and learn about their key nutrients, how many you should consume daily, their serving size, and clever ways to add them in your diet..</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Familiarisation avec le groupe alimentaire des produits laitiers. La complexité de la tâche augmente à chaque niveau: premièrement, l'accent est mis sur l'identification et la tranche des produits laitiers communs; Ensuite, les apprenants passent à la tranche de l'image qui montre la consommation quotidienne recommandée de produits laitiers; Enfin, ils identifient et coupent l'image qui met en évidence les nutriments clés trouvés dans les laiteries, c'est-à-dire le calcium.</t>
+          <t>Recherchez les produits laitiers! Tranchez-les pour gagner des points et découvrez leurs principaux nutriments, la quantité que vous devriez consommer quotidiennement, la taille de leurs portions et les façons astucieuses de les ajouter à votre alimentation.</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Your task is to slice only the dairy products you see.</t>
+          <t>Your task is to slice the dairy products!</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Votre tâche consiste à trancher uniquement les produits laitiers que vous voyez.</t>
+          <t>Votre tâche est de trancher les produits laitiers !</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Make dairies a daily habit! Include them early in your day and build healthy habits that last!</t>
+          <t>Make dairy products a daily habit! Include them early in your day and build healthy habits that last!</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Faites des laiteries une habitude quotidienne! Incluez-les tôt dans votre journée et construisez des habitudes saines qui durent!</t>
+          <t>Faites des produits laitiers une habitude quotidienne ! Incluez-les tôt dans votre journée et adoptez des habitudes saines qui durent !</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dairy products like milk, yogurt, and cheese are foods recommended for daily consumption because they provide key nutrients for your growth and development.</t>
+          <t>Dairy products like milk, yogurt, and cheese are foods you shoulod consume daily because they provide key nutrients for your growth and development.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Les produits laitiers comme le lait, le yaourt et le fromage sont des aliments recommandés pour la consommation quotidienne car ils fournissent des nutriments clés pour votre croissance et votre développement.</t>
+          <t>Les produits laitiers comme le lait, le yaourt et le fromage sont des aliments que vous devriez consommer quotidiennement car ils fournissent des nutriments essentiels à votre croissance et à votre développement.</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Your task is to slice only the recommended daily consumption of dairy products you see.</t>
+          <t>Your task is to slice the recommended daily consumption of dairy products!</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Votre tâche consiste à trancher uniquement la consommation quotidienne recommandée de produits laitiers que vous voyez.</t>
+          <t>Votre tâche est de réduire la consommation quotidienne recommandée de produits laitiers !</t>
         </is>
       </c>
     </row>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Go with dairies every day!</t>
+          <t>Go with dairy products every day!</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Allez avec les laiteries tous les jours!</t>
+          <t>Optez pour des produits laitiers tous les jours !</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy option to stay strong and healthy!</t>
+          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy product boption to stay strong and healthy!</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pour atteindre l'objectif de 3 à 4 portions de produits laitiers par jour, essayez d'inclure un verre de lait avec petit déjeuner, yaourt comme collation ou fromage avec votre déjeuner ou votre dîner. Prenez l'habitude - associez vos repas ou des collations à une option laitière pour rester fort et en bonne santé!</t>
+          <t>Pour atteindre l'objectif de 3 à 4 portions de produits laitiers par jour, essayez d'inclure un verre de lait au petit-déjeuner, du yaourt comme collation ou du fromage au déjeuner ou au dîner. Prenez-en une habitude : associez vos repas ou vos collations à un produit laitier pour rester fort et en bonne santé !</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Your task is to identify what counts as one portion of a dairy product. Select all the items that represent a standard dairy portion.</t>
+          <t xml:space="preserve">Your task is to slice what counts as one portion of a dairy product. </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Votre tâche consiste à identifier ce qui compte comme une partie d'un produit laitier. Sélectionnez tous les éléments qui représentent une partie laitière standard.</t>
+          <t>Votre tâche consiste à trancher ce qui compte comme une portion d'un produit laitier.</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Your task is to slice only the key nutrient found in dairy products. Note that: Ca: calcium, Fe: Iron.</t>
+          <t>Your task is to slice the key nutrient found in dairy products! Note that: Ca: calcium, Fe: Iron, vE: vitamin E.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Votre tâche consiste à trancher uniquement les nutriments clés trouvés dans les produits laitiers. Notez que: CA: Calcium, Fe: fer.</t>
+          <t>Votre tâche consiste à découper le nutriment clé présent dans les produits laitiers ! A noter que : Ca : calcium, Fe : Fer, vE : vitamine E.</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dairy products are one of the best sources of calcium (Ca), which helps build strong bones and teeth.</t>
+          <t>Dairy products are one of the best sources of calcium , which helps build strong bones and teeth.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Les produits laitiers sont l'une des meilleures sources de calcium (CA), qui aide à construire des os et des dents solides.</t>
+          <t>Les produits laitiers sont l'une des meilleures sources de calcium, ce qui contribue à la formation d'os et de dents solides.</t>
         </is>
       </c>
     </row>
